--- a/Services/input.xlsx
+++ b/Services/input.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
-  <si>
-    <t>Education</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>url</t>
   </si>
@@ -121,108 +118,6 @@
   </si>
   <si>
     <t>http://www.thebetterindia.com/17168/digital-green-rikin-gandhi-using-videos-films-improve-agriculture-rural-india/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/20246/video-how-villagers-nagaland-built-a-beautiful-equitable-water-management-system/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/20337/india-launches-first-indigenous-and-the-cheapest-rotavirus-vaccine-1/</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/20304/government-of-india-digital-empowerment-witha-digilocker-facility/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/20187/beware-the-walls-of-this-locality-in-hamburg-can-pee-back-at-you/</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19986/a-plastic-bottle-provide-light-in-a-low-income-home-liter-of-light/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19706/an-app-that-helps-you-fight-depression-nsmiles/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19836/a-documentary-on-an-81-year-old-woman-porter-is-throwing-its-weight-at-international-film-festivals/</t>
-  </si>
-  <si>
-    <t>Inspiration</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19573/one-woman-crusade-against-open-defecation-construction-toilets-village-uttar-pradesh/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19352/video-unicef-girl-child-father-baap-wali-baat/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/16891/interactive-course-teaching-communal-harmony-conflict-resolution-kids/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18324/how-this-waste-collector-bengaluru-making-entrepreneurs-out-of-ragpickers/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19116/royal-mysore-walks-heritage-tours-mysuru-travel/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19190/fab-lab-mit-amazing-innovations-for-rural-urban-india/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19216/sold-bread-changed-tyres-survive-now-helps-kids-become-engineers-ias-officers/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19317/now-every-citizen-bangalore-can-traffic-cop-thanks-public-eye/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19178/folding-microscope-made-single-sheet-paper-can-save-billion-lives/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19142/school-bag-also-serves-study-lamp-delhis-slum-kids/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/19149/story-retired-senior-citizen-uses-time-savings-control-city-traffic/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/14117/oung-guy-breaking-taboo-menstrual-hygiene-among-urban-poor-dilip-kumar-sukhibhava/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/17569/technology-that-is-providing-clean-drinking-water-to-the-villagers-in-just-20-paise-smaat-india/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18631/video-on-girl-education-india-sister-nivedita/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18463/ngo-using-unique-model-to-impact-lives-of-needy-women-children-animedh-charitable-trust-mumbai/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18698/meet-the-24-amazing-national-bravery-award-winners/</t>
-  </si>
-  <si>
-    <t>Bravery Awards</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18554/one-man-turned-village-alcohol-tobacco-free-zone/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/16800/team-changing-lives-adolescent-girls-rural-india-just-15-days-voice4girls/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18068/just-for-kicks-how-football-led-to-100-percent-attendance-in-a-government-school/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/18326/the-man-who-moved-a-mountain-milaap-dashrath-manjhi/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/13876/cup-tea-doorstep-online-chotuchaiwala-mumbai/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/17833/indian-constitution-2-hours-in-this-citizen-cafe-is-all-you-need/</t>
-  </si>
-  <si>
-    <t>http://www.thebetterindia.com/15134/meerut-man-adopted-12-children-hiv-positive/</t>
   </si>
 </sst>
 </file>
@@ -598,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -612,10 +507,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -623,10 +518,10 @@
     </row>
     <row r="2" spans="1:5" ht="20">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -634,10 +529,10 @@
     </row>
     <row r="3" spans="1:5" ht="20">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -645,10 +540,10 @@
     </row>
     <row r="4" spans="1:5" ht="20">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -656,10 +551,10 @@
     </row>
     <row r="5" spans="1:5" ht="20">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -667,10 +562,10 @@
     </row>
     <row r="6" spans="1:5" ht="20">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -678,10 +573,10 @@
     </row>
     <row r="7" spans="1:5" ht="20">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -689,10 +584,10 @@
     </row>
     <row r="8" spans="1:5" ht="20">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -700,10 +595,10 @@
     </row>
     <row r="9" spans="1:5" ht="20">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -711,10 +606,10 @@
     </row>
     <row r="10" spans="1:5" ht="20">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -722,10 +617,10 @@
     </row>
     <row r="11" spans="1:5" ht="20">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -733,10 +628,10 @@
     </row>
     <row r="12" spans="1:5" ht="20">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -744,10 +639,10 @@
     </row>
     <row r="13" spans="1:5" ht="20">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -755,10 +650,10 @@
     </row>
     <row r="14" spans="1:5" ht="20">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -766,10 +661,10 @@
     </row>
     <row r="15" spans="1:5" ht="20">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -777,10 +672,10 @@
     </row>
     <row r="16" spans="1:5" ht="20">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -788,10 +683,10 @@
     </row>
     <row r="17" spans="1:5" ht="20">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -799,10 +694,10 @@
     </row>
     <row r="18" spans="1:5" ht="20">
       <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -810,10 +705,10 @@
     </row>
     <row r="19" spans="1:5" ht="20">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -821,344 +716,14 @@
     </row>
     <row r="20" spans="1:5" ht="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="20">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="20">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="20">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="20">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="20">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="20">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="20">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="20">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="20">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="20">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="20">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="20">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="20">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="20">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="20">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="20">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="20">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="20">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="20">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="20">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="20">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="20">
-      <c r="A42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="20">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="20">
-      <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="20">
-      <c r="A45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="20">
-      <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="20">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="20">
-      <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="20">
-      <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="20">
-      <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
